--- a/pred_ohlcv/54_21/2019-10-09 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3548.62581862</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3548.32581862</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3964.741418620001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4011.031418620001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4721.63301862</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2695.202218620001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3285.430718620001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3119.02071862</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3141.526542940001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3083.215942940001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3083.315942940001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3082.506542940001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2965.486342940001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2969.486342940001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2965.484282680001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2969.484282680001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2965.483255460001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2874.161355460001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2821.992255460001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2803.399755460001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2843.399755460001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2883.399755460001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2723.33585546</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2723.33585546</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2793.09185546</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3010.19185546</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3010.19185546</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3572.69475546</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>12993.63965546</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-09 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 MCO ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3964.741418620001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4011.031418620001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4721.63301862</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2695.202218620001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3285.430718620001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3119.02071862</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3141.526542940001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3083.215942940001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3083.315942940001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3082.506542940001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2965.486342940001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2969.486342940001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2965.484282680001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2969.484282680001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2965.483255460001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2874.161355460001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2821.992255460001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2803.399755460001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2843.399755460001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2883.399755460001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2723.33585546</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2723.33585546</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2793.09185546</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2835.19185546</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3010.19185546</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3010.19185546</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3572.69475546</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>12993.63965546</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
